--- a/data/financial_statements/soci/XYL.xlsx
+++ b/data/financial_statements/soci/XYL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1380000000</v>
+        <v>1386000000</v>
       </c>
       <c r="C2">
-        <v>1364000000</v>
+        <v>1366000000</v>
       </c>
       <c r="D2">
-        <v>1272000000</v>
+        <v>1274000000</v>
       </c>
       <c r="E2">
-        <v>1323000000</v>
+        <v>1326000000</v>
       </c>
       <c r="F2">
-        <v>1265000000</v>
+        <v>1267000000</v>
       </c>
       <c r="G2">
         <v>1351000000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.09089999999999999</v>
+        <v>0.0939</v>
       </c>
       <c r="C3">
-        <v>0.009599999999999999</v>
+        <v>0.0111</v>
       </c>
       <c r="D3">
-        <v>0.0127</v>
+        <v>0.0143</v>
       </c>
       <c r="E3">
-        <v>-0.0364</v>
+        <v>-0.0342</v>
       </c>
       <c r="F3">
-        <v>0.0369</v>
+        <v>0.0385</v>
       </c>
       <c r="G3">
         <v>0.1647</v>
@@ -855,20 +966,20 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>856000000</v>
       </c>
       <c r="C4">
-        <v>844000000</v>
+        <v>843000000</v>
       </c>
       <c r="D4">
         <v>805000000</v>
       </c>
       <c r="E4">
-        <v>830000000</v>
+        <v>831000000</v>
       </c>
       <c r="F4">
         <v>793000000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>524000000</v>
+        <v>530000000</v>
       </c>
       <c r="C5">
-        <v>520000000</v>
+        <v>523000000</v>
       </c>
       <c r="D5">
-        <v>467000000</v>
+        <v>469000000</v>
       </c>
       <c r="E5">
-        <v>493000000</v>
+        <v>495000000</v>
       </c>
       <c r="F5">
-        <v>472000000</v>
+        <v>474000000</v>
       </c>
       <c r="G5">
         <v>520000000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>47000000</v>
@@ -1221,8 +1332,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>294000000</v>
@@ -1343,8 +1454,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>168000000</v>
@@ -1465,8 +1576,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>21000000</v>
@@ -1506,8 +1617,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>12000000</v>
@@ -1628,23 +1739,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-151000000</v>
+        <v>102000000</v>
       </c>
       <c r="C11">
-        <v>-10000000</v>
+        <v>-1000000</v>
       </c>
       <c r="D11">
-        <v>-13000000</v>
+        <v>-8000000</v>
       </c>
       <c r="E11">
-        <v>-14000000</v>
+        <v>-8000000</v>
       </c>
       <c r="F11">
-        <v>-19000000</v>
+        <v>-8000000</v>
       </c>
       <c r="G11">
         <v>-22000000</v>
@@ -1750,8 +1861,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>17000000</v>
@@ -1872,8 +1983,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>5000000</v>
@@ -1994,8 +2105,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>12000000</v>
@@ -2116,8 +2227,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="U15">
         <v>-1000000</v>
@@ -2136,8 +2247,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>12000000</v>
@@ -2258,8 +2369,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0.07000000000000001</v>
@@ -2380,8 +2491,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.07000000000000001</v>
@@ -2502,23 +2613,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>180200000</v>
+        <v>180000000</v>
       </c>
       <c r="C19">
-        <v>180200000</v>
+        <v>180000000</v>
       </c>
       <c r="D19">
-        <v>180200000</v>
+        <v>180000000</v>
       </c>
       <c r="E19">
-        <v>180200000</v>
+        <v>180000000</v>
       </c>
       <c r="F19">
-        <v>180200000</v>
+        <v>180000000</v>
       </c>
       <c r="G19">
         <v>180100000</v>
@@ -2624,23 +2735,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>180900000</v>
+        <v>181000000</v>
       </c>
       <c r="C20">
-        <v>180600000</v>
+        <v>181000000</v>
       </c>
       <c r="D20">
         <v>181000000</v>
       </c>
       <c r="E20">
-        <v>181500000</v>
+        <v>182000000</v>
       </c>
       <c r="F20">
-        <v>181600000</v>
+        <v>182000000</v>
       </c>
       <c r="G20">
         <v>181300000</v>
@@ -2746,23 +2857,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.3797</v>
+        <v>0.3824</v>
       </c>
       <c r="C21">
-        <v>0.3812</v>
+        <v>0.3829</v>
       </c>
       <c r="D21">
-        <v>0.3671</v>
+        <v>0.3681</v>
       </c>
       <c r="E21">
-        <v>0.3726</v>
+        <v>0.3733</v>
       </c>
       <c r="F21">
-        <v>0.3731</v>
+        <v>0.3741</v>
       </c>
       <c r="G21">
         <v>0.3849</v>
@@ -2868,23 +2979,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.1217</v>
+        <v>0.1212</v>
       </c>
       <c r="C22">
-        <v>0.107</v>
+        <v>0.1069</v>
       </c>
       <c r="D22">
-        <v>0.0873</v>
+        <v>0.0871</v>
       </c>
       <c r="E22">
-        <v>0.1058</v>
+        <v>0.1056</v>
       </c>
       <c r="F22">
-        <v>0.1202</v>
+        <v>0.12</v>
       </c>
       <c r="G22">
         <v>0.1184</v>
@@ -2990,23 +3101,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.0123</v>
       </c>
       <c r="C23">
-        <v>0.0997</v>
+        <v>0.09959999999999999</v>
       </c>
       <c r="D23">
-        <v>0.077</v>
+        <v>0.0769</v>
       </c>
       <c r="E23">
-        <v>0.09520000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="F23">
-        <v>0.1051</v>
+        <v>0.105</v>
       </c>
       <c r="G23">
         <v>0.1021</v>
@@ -3112,23 +3223,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.008699999999999999</v>
       </c>
       <c r="C24">
-        <v>0.08210000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="D24">
-        <v>0.0645</v>
+        <v>0.0644</v>
       </c>
       <c r="E24">
-        <v>0.0854</v>
+        <v>0.0852</v>
       </c>
       <c r="F24">
-        <v>0.0901</v>
+        <v>0.09</v>
       </c>
       <c r="G24">
         <v>0.08359999999999999</v>
@@ -3234,20 +3345,20 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>226000000</v>
+        <v>286000000</v>
       </c>
       <c r="C25">
-        <v>206000000</v>
+        <v>216000000</v>
       </c>
       <c r="D25">
-        <v>169000000</v>
+        <v>171000000</v>
       </c>
       <c r="E25">
-        <v>199000000</v>
+        <v>201000000</v>
       </c>
       <c r="F25">
         <v>214000000</v>
@@ -3356,8 +3467,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>168000000</v>
@@ -3478,8 +3589,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>12000000</v>
@@ -3600,8 +3711,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>12000000</v>
@@ -3722,8 +3833,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0.06660000000000001</v>
@@ -3844,8 +3955,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.0663</v>
@@ -3966,8 +4077,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.06660000000000001</v>
@@ -4088,8 +4199,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.0663</v>
@@ -4210,8 +4321,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>180900000</v>
@@ -4332,23 +4443,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>0.1638</v>
+        <v>0.2063</v>
       </c>
       <c r="C34">
-        <v>0.151</v>
+        <v>0.1581</v>
       </c>
       <c r="D34">
-        <v>0.1329</v>
+        <v>0.1342</v>
       </c>
       <c r="E34">
-        <v>0.1504</v>
+        <v>0.1516</v>
       </c>
       <c r="F34">
-        <v>0.1692</v>
+        <v>0.1689</v>
       </c>
       <c r="G34">
         <v>0.1643</v>
@@ -4454,23 +4565,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.1464</v>
+        <v>0.1457</v>
       </c>
       <c r="C35">
-        <v>0.0828</v>
+        <v>0.0827</v>
       </c>
       <c r="D35">
-        <v>-0.06370000000000001</v>
+        <v>-0.0636</v>
       </c>
       <c r="E35">
-        <v>0.1663</v>
+        <v>0.1659</v>
       </c>
       <c r="F35">
-        <v>0.0885</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="G35">
         <v>0.1717</v>
